--- a/2025 Hay Production.xlsx
+++ b/2025 Hay Production.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29602"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thetrustees.sharepoint.com/sites/FarmTeam/Shared Documents/Agroecology Initiative/Monitoring/Production/Data/spreadsheets/2023/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alejandrobrambila/Documents/Documents - Alejandro’s Mac mini/GitHub/forage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3621" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD91A66D-C926-4651-8F61-A447BB621FE1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80603BE7-3412-444B-84AE-D24AC9D2F732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="27980" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-41140" yWindow="7960" windowWidth="27980" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hay 2025" sheetId="8" r:id="rId1"/>
@@ -198,7 +198,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,9 +287,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -327,7 +327,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -433,7 +433,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -575,7 +575,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -587,24 +587,24 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" customWidth="1"/>
+    <col min="6" max="6" width="6.5" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" customWidth="1"/>
+    <col min="10" max="10" width="8.5" customWidth="1"/>
+    <col min="11" max="11" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="45.75">
+    <row r="1" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -644,7 +644,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" ht="18.75">
+    <row r="2" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -661,7 +661,7 @@
         <v>7</v>
       </c>
       <c r="F2">
-        <f>B2-E2</f>
+        <f t="shared" ref="F2:F17" si="0">B2-E2</f>
         <v>1</v>
       </c>
       <c r="G2" s="10">
@@ -675,7 +675,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="18.75">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -692,7 +692,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <f>B3-E3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G3" s="8">
@@ -708,7 +708,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="18.75">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -725,7 +725,7 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <f>B4-E4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G4" s="9">
@@ -738,7 +738,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="2" customFormat="1" ht="18.75">
+    <row r="5" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -755,7 +755,7 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <f>B5-E5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G5" s="9">
@@ -773,7 +773,7 @@
       <c r="O5"/>
       <c r="P5"/>
     </row>
-    <row r="6" spans="1:16" ht="18.75">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -783,12 +783,14 @@
       <c r="C6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="11">
+        <v>45929</v>
+      </c>
       <c r="E6">
         <v>3</v>
       </c>
       <c r="F6">
-        <f>B6-E6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G6" s="9">
@@ -801,7 +803,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="18.75">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -818,7 +820,7 @@
         <v>10</v>
       </c>
       <c r="F7">
-        <f>B7-E7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G7" s="9">
@@ -834,7 +836,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="18.75">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -851,7 +853,7 @@
         <v>10</v>
       </c>
       <c r="F8">
-        <f>B8-E8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G8" s="9">
@@ -864,7 +866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="18.75">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -881,7 +883,7 @@
         <v>6</v>
       </c>
       <c r="F9">
-        <f>B9-E9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G9" s="9">
@@ -891,7 +893,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="18.75">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -908,7 +910,7 @@
         <v>6</v>
       </c>
       <c r="F10">
-        <f>B10-E10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G10" s="9"/>
@@ -919,7 +921,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="16.5" customHeight="1">
+    <row r="11" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -936,7 +938,7 @@
         <v>7</v>
       </c>
       <c r="F11">
-        <f>B11-E11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G11" s="9">
@@ -946,7 +948,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="18.75">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -963,7 +965,7 @@
         <v>7</v>
       </c>
       <c r="F12">
-        <f>B12-E12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G12" s="9">
@@ -976,7 +978,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="18.75">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -993,7 +995,7 @@
         <v>6</v>
       </c>
       <c r="F13">
-        <f>B13-E13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G13" s="8">
@@ -1006,7 +1008,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="18.75">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1023,7 +1025,7 @@
         <v>22</v>
       </c>
       <c r="F14">
-        <f>B14-E14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G14" s="9">
@@ -1036,7 +1038,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="18.75">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1053,7 +1055,7 @@
         <v>22</v>
       </c>
       <c r="F15">
-        <f>B15-E15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G15" s="9">
@@ -1067,7 +1069,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="18.75">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -1084,7 +1086,7 @@
         <v>14</v>
       </c>
       <c r="F16">
-        <f>B16-E16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G16" s="9">
@@ -1097,7 +1099,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="18.75">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -1114,7 +1116,7 @@
         <v>3.7</v>
       </c>
       <c r="F17">
-        <f>B17-E17</f>
+        <f t="shared" si="0"/>
         <v>0.29999999999999982</v>
       </c>
       <c r="G17" s="9">
@@ -1124,7 +1126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="18.75">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1148,7 +1150,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="18.75">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1178,7 +1180,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="18.75">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1200,7 +1202,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="18.75">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1224,7 +1226,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="18.75">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -1241,7 +1243,7 @@
         <v>2</v>
       </c>
       <c r="F22">
-        <f>B22-E22</f>
+        <f t="shared" ref="F22:F28" si="1">B22-E22</f>
         <v>0</v>
       </c>
       <c r="G22" s="9">
@@ -1251,7 +1253,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="18.75">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -1268,7 +1270,7 @@
         <v>3</v>
       </c>
       <c r="F23">
-        <f>B23-E23</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G23" s="8">
@@ -1281,7 +1283,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="18.75">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -1298,7 +1300,7 @@
         <v>5</v>
       </c>
       <c r="F24">
-        <f>B24-E24</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G24" s="9">
@@ -1311,7 +1313,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="18.75">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -1328,7 +1330,7 @@
         <v>5</v>
       </c>
       <c r="F25">
-        <f>B25-E25</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G25" s="9">
@@ -1341,7 +1343,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="51.75">
+    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -1358,7 +1360,7 @@
         <v>7</v>
       </c>
       <c r="F26">
-        <f>B26-E26</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G26" s="8">
@@ -1374,7 +1376,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="18.75">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>47</v>
       </c>
@@ -1391,7 +1393,7 @@
         <v>5</v>
       </c>
       <c r="F27">
-        <f>B27-E27</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G27" s="9">
@@ -1404,7 +1406,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -1421,7 +1423,7 @@
         <v>3</v>
       </c>
       <c r="F28">
-        <f>B28-E28</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="G28" s="9">
@@ -1434,7 +1436,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F31" t="s">
         <v>50</v>
       </c>
@@ -1456,6 +1458,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100384ED6EA59C86843A3FDC566A74AAB12" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b959cd716ca3f89456307bb2f3764cdb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7be44a87-d543-4934-8de2-418138bc17e4" xmlns:ns3="bcc4b506-e90e-40d3-aed3-42a91140077c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7b5323ea4bd80a66cecdf4f27d5713a" ns2:_="" ns3:_="">
     <xsd:import namespace="7be44a87-d543-4934-8de2-418138bc17e4"/>
@@ -1716,15 +1727,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1737,13 +1739,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6706442D-5D49-45D1-9A83-D1EE6E651A25}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEBFA475-086D-4B4C-94AE-EF3F739694F3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEBFA475-086D-4B4C-94AE-EF3F739694F3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6706442D-5D49-45D1-9A83-D1EE6E651A25}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7be44a87-d543-4934-8de2-418138bc17e4"/>
+    <ds:schemaRef ds:uri="bcc4b506-e90e-40d3-aed3-42a91140077c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA6EE158-E5F9-44FE-AC73-C517CF043609}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA6EE158-E5F9-44FE-AC73-C517CF043609}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7be44a87-d543-4934-8de2-418138bc17e4"/>
+    <ds:schemaRef ds:uri="bcc4b506-e90e-40d3-aed3-42a91140077c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>